--- a/1_スケジュール実行/output/output.xlsx
+++ b/1_スケジュール実行/output/output.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="1" state="visible" r:id="rId1"/>
@@ -56,18 +56,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -10903,7 +10903,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -13564,7 +13564,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -23545,7 +23545,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -24681,6 +24681,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/1_スケジュール実行/output/output.xlsx
+++ b/1_スケジュール実行/output/output.xlsx
@@ -11,6 +11,7 @@
     <sheet name="先生スケジュール" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="生徒スケジュール" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="座席上限" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="生徒_受講コマ数" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3490,8 +3491,10 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>数学・松本</t>
+        </is>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -6730,8 +6733,10 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="n">
-        <v>0</v>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>数学・松本</t>
+        </is>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -6932,8 +6937,10 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="n">
-        <v>0</v>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>数学・松本</t>
+        </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -8002,8 +8009,10 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="n">
-        <v>0</v>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>数学・松本</t>
+        </is>
       </c>
       <c r="S72" t="n">
         <v>0</v>
@@ -8494,8 +8503,10 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="n">
-        <v>0</v>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>数学・松本</t>
+        </is>
       </c>
       <c r="S77" t="n">
         <v>0</v>
@@ -11272,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -11685,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>99</v>
@@ -11896,7 +11907,7 @@
         <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -12491,7 +12502,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>99</v>
@@ -12543,10 +12554,10 @@
         <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63">
@@ -12803,7 +12814,7 @@
         <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>99</v>
@@ -12933,7 +12944,7 @@
         <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>99</v>
@@ -16443,7 +16454,7 @@
         <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -19481,7 +19492,7 @@
         <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -19677,7 +19688,7 @@
         <v>1</v>
       </c>
       <c r="R62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -20657,7 +20668,7 @@
         <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -21147,7 +21158,7 @@
         <v>1</v>
       </c>
       <c r="R77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
         <v>1</v>
@@ -23885,7 +23896,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -24226,7 +24237,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -24248,7 +24259,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -24358,7 +24369,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -24413,7 +24424,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -24678,6 +24689,2211 @@
       </c>
       <c r="C101" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>生徒の優先順位</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>学年</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>生徒の名前</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>国語</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>英語</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>理科</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>社会</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>国語の第1希望の先生</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>国語の第2希望の先生</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>数学の第1希望の先生</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>数学の第2希望の先生</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>英語の第1希望の先生</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>英語の第2希望の先生</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>理科の第1希望の先生</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>理科の第2希望の先生</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>社会の第1希望の先生</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>社会の第2希望の先生</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>井上小百合</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>衛藤美彩</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>高山一実</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>高瀬愛奈</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>若月佑美</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>秋元真夏</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>松井玲奈</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>松村沙友理</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>深川麻衣</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>生田絵梨花</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西野七瀬</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>斉藤優里</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中田花奈</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>白石麻衣</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>樋口日奈</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>齋藤飛鳥</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>伊藤かりん</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>伊藤純奈</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>佐々木琴子</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>寺田蘭世</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新内眞衣</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>北野日奈子</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>堀未央奈</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>伊藤理々杏</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>遠藤さくら</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>久保史緒里</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>高山澪</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>佐藤楓</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>北川悠理</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>与田祐希</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>櫻井</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>松本</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>二宮</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>相葉</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>大野</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/1_スケジュール実行/output/output.xlsx
+++ b/1_スケジュール実行/output/output.xlsx
@@ -1818,7 +1818,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>国語・未定</t>
+          <t>国語・小澤</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>国語・未定</t>
+          <t>国語・小澤</t>
         </is>
       </c>
       <c r="T37" t="n">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>国語・未定</t>
+          <t>国語・小澤</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">

--- a/1_スケジュール実行/output/output.xlsx
+++ b/1_スケジュール実行/output/output.xlsx
@@ -1441,8 +1441,10 @@
           <t>国語・櫻井</t>
         </is>
       </c>
-      <c r="AD9" t="n">
-        <v>0</v>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>理科・未定</t>
+        </is>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1803,7 +1805,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>数学・未定</t>
+          <t>数学・小澤</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1818,7 +1820,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>国語・小澤</t>
+          <t>国語・未定</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2139,8 +2141,10 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>国語・未定</t>
+        </is>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2243,8 +2247,10 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>数学・未定</t>
+        </is>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2613,10 +2619,8 @@
       <c r="AC20" t="n">
         <v>0</v>
       </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>社会・大野</t>
-        </is>
+      <c r="AD20" t="n">
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2721,8 +2725,10 @@
           <t>英語・松本</t>
         </is>
       </c>
-      <c r="AD21" t="n">
-        <v>0</v>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>社会・未定</t>
+        </is>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -3491,10 +3497,8 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>数学・松本</t>
-        </is>
+      <c r="R29" t="n">
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -4285,7 +4289,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>数学・未定</t>
+          <t>数学・小澤</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -4296,7 +4300,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>国語・小澤</t>
+          <t>国語・未定</t>
         </is>
       </c>
       <c r="T37" t="n">
@@ -6733,10 +6737,8 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>数学・松本</t>
-        </is>
+      <c r="R60" t="n">
+        <v>0</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -6931,20 +6933,18 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>数学・未定</t>
+          <t>数学・小澤</t>
         </is>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>数学・松本</t>
-        </is>
+      <c r="R62" t="n">
+        <v>0</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>国語・小澤</t>
+          <t>国語・未定</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -7635,10 +7635,8 @@
           <t>社会・櫻井</t>
         </is>
       </c>
-      <c r="AD68" t="inlineStr">
-        <is>
-          <t>理科・二宮</t>
-        </is>
+      <c r="AD68" t="n">
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
         <v>0</v>
@@ -8009,10 +8007,8 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>数学・松本</t>
-        </is>
+      <c r="R72" t="n">
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
@@ -8503,10 +8499,8 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>数学・松本</t>
-        </is>
+      <c r="R77" t="n">
+        <v>0</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
@@ -11179,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -11361,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -11387,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -11491,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -11696,7 +11690,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>99</v>
@@ -12502,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>99</v>
@@ -12554,7 +12548,7 @@
         <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>99</v>
@@ -12814,7 +12808,7 @@
         <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>99</v>
@@ -12944,7 +12938,7 @@
         <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>99</v>
@@ -14530,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>1</v>
@@ -15180,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -15278,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -15706,7 +15700,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
         <v>1</v>
@@ -16454,7 +16448,7 @@
         <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -19492,7 +19486,7 @@
         <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -19688,7 +19682,7 @@
         <v>1</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -20668,7 +20662,7 @@
         <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -21158,7 +21152,7 @@
         <v>1</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" t="n">
         <v>1</v>
@@ -23676,7 +23670,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -23753,7 +23747,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -23764,7 +23758,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,7 +23802,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -23896,7 +23890,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -24237,7 +24231,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -24259,7 +24253,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -24369,7 +24363,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -24424,7 +24418,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -24835,25 +24829,17 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -24861,15 +24847,11 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -24905,15 +24887,11 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -24967,25 +24945,17 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -25027,35 +24997,23 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -25097,25 +25055,17 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -25169,25 +25119,17 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -25229,35 +25171,23 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -25305,25 +25235,17 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -25371,35 +25293,23 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -25447,15 +25357,11 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -25503,15 +25409,11 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -25565,25 +25467,17 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -25631,25 +25525,17 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -25703,15 +25589,11 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -25771,25 +25653,17 @@
       <c r="N16" t="n">
         <v>0</v>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -25825,10 +25699,8 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -25839,25 +25711,17 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -25893,25 +25757,17 @@
       <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -25953,35 +25809,23 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -26023,55 +25867,35 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26101,25 +25925,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -26167,35 +25983,23 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -26243,45 +26047,29 @@
       <c r="J23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -26317,25 +26105,17 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -26377,55 +26157,35 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26455,55 +26215,35 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -26533,55 +26273,35 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -26611,55 +26331,35 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26689,55 +26389,35 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -26767,55 +26447,35 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -26845,55 +26505,35 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>櫻井</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>松本</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>二宮</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>相葉</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>大野</t>
-        </is>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
